--- a/data/1_sampleData.xlsx
+++ b/data/1_sampleData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Google Drev\AU\Aktuelle\PiB\E21_PiB\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Google Drev\AU\Aktuelle\PiB\Project_in_Bioinformatics_E21\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA37405B-6801-4A5B-B4A4-A361269F6A9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF5B0E1-7D3F-4A66-AFC5-1C28B8563C92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8141" uniqueCount="1880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8141" uniqueCount="1879">
   <si>
     <t>GF_deep_1_blank_dark_1</t>
   </si>
@@ -5660,9 +5660,6 @@
   </si>
   <si>
     <t>light_dark</t>
-  </si>
-  <si>
-    <t>pressure _mpa</t>
   </si>
   <si>
     <t>free_living_biofilm</t>
@@ -6161,9 +6158,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X525"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="82" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1:X1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="82" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6224,22 +6221,22 @@
         <v>1872</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>1873</v>
+        <v>1876</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>359</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>362</v>
       </c>
       <c r="R1" s="32" t="s">
+        <v>1874</v>
+      </c>
+      <c r="S1" s="32" t="s">
         <v>1875</v>
-      </c>
-      <c r="S1" s="32" t="s">
-        <v>1876</v>
       </c>
       <c r="T1" s="8" t="s">
         <v>370</v>
@@ -6251,10 +6248,10 @@
         <v>372</v>
       </c>
       <c r="W1" s="8" t="s">
+        <v>1877</v>
+      </c>
+      <c r="X1" s="8" t="s">
         <v>1878</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -29879,22 +29876,22 @@
         <v>1872</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>359</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>362</v>
       </c>
       <c r="R1" s="32" t="s">
+        <v>1874</v>
+      </c>
+      <c r="S1" s="32" t="s">
         <v>1875</v>
-      </c>
-      <c r="S1" s="32" t="s">
-        <v>1876</v>
       </c>
       <c r="T1" s="8" t="s">
         <v>370</v>
@@ -29906,10 +29903,10 @@
         <v>372</v>
       </c>
       <c r="W1" s="8" t="s">
+        <v>1877</v>
+      </c>
+      <c r="X1" s="8" t="s">
         <v>1878</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>1879</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
@@ -36976,7 +36973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8CF3FC-424E-8147-B98A-31F1240BEF77}">
   <dimension ref="A1:G524"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="81" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -45911,6 +45908,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BFA6A795B3264D4F859ECB954B11F065" ma:contentTypeVersion="11" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="d76922a52253d9a038b2d904e2b79deb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fce77e05-e53d-40e3-924c-010633414056" xmlns:ns4="84f42352-3182-481c-87ea-4ab76f0f3ad6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d2c714f4a981999db33ed4afb4c42e1" ns3:_="" ns4:_="">
     <xsd:import namespace="fce77e05-e53d-40e3-924c-010633414056"/>
@@ -46121,15 +46127,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85D23C21-561E-4BD4-9B34-CE41202923F7}">
   <ds:schemaRefs>
@@ -46148,6 +46145,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5355AB2-C403-4EFC-A166-128A0E3B9829}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7B8EB7A-B069-4138-BBDF-4D8D4B442B36}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -46164,12 +46169,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5355AB2-C403-4EFC-A166-128A0E3B9829}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>